--- a/metadata/metadata.xlsx
+++ b/metadata/metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
   <si>
     <t xml:space="preserve">Sample_ID</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Living_Larvae</t>
   </si>
   <si>
-    <t xml:space="preserve">CC1</t>
+    <t xml:space="preserve">LOG-16S-CC1</t>
   </si>
   <si>
     <t xml:space="preserve">Juniperus osteosperma</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">#5261 (1998)</t>
   </si>
   <si>
-    <t xml:space="preserve">CC2</t>
+    <t xml:space="preserve">LOG-16S-CC2</t>
   </si>
   <si>
     <t xml:space="preserve">Meadow Spring</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">#5262 (1999)</t>
   </si>
   <si>
-    <t xml:space="preserve">M1</t>
+    <t xml:space="preserve">LOG-16S-M1</t>
   </si>
   <si>
     <t xml:space="preserve">Moab</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">#5263 (2000)</t>
   </si>
   <si>
-    <t xml:space="preserve">F1</t>
+    <t xml:space="preserve">LOG-16S-F1</t>
   </si>
   <si>
     <t xml:space="preserve">Fillmore</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">#5264 (2001)</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
+    <t xml:space="preserve">LOG-16S-P1</t>
   </si>
   <si>
     <t xml:space="preserve">Juniperus scopulorum</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">CC3</t>
+    <t xml:space="preserve">LOG-16S-CC3</t>
   </si>
   <si>
     <t xml:space="preserve">Vance</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">#5265 (2004)</t>
   </si>
   <si>
-    <t xml:space="preserve">CC4</t>
+    <t xml:space="preserve">LOG-16S-CC4</t>
   </si>
   <si>
     <t xml:space="preserve">Neck</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">#5266 (2005)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL2</t>
+    <t xml:space="preserve">LOG-16S-SL2</t>
   </si>
   <si>
     <t xml:space="preserve">Salt_Lake_2</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">#5267 (2007)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL3</t>
+    <t xml:space="preserve">LOG-16S-SL3</t>
   </si>
   <si>
     <t xml:space="preserve">Salt_Lake_3</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">#5268 (2008)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL4</t>
+    <t xml:space="preserve">LOG-16S-SL4</t>
   </si>
   <si>
     <t xml:space="preserve">Salt_Lake_4</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">#5269 (2009)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL6</t>
+    <t xml:space="preserve">LOG-16S-SL6</t>
   </si>
   <si>
     <t xml:space="preserve">Nowhere</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">#5270 (2011)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL7</t>
+    <t xml:space="preserve">LOG-16S-SL7</t>
   </si>
   <si>
     <t xml:space="preserve">Shanty Canyon</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">#5271 (2012)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL8</t>
+    <t xml:space="preserve">LOG-16S-SL8</t>
   </si>
   <si>
     <t xml:space="preserve">Playground</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">#5272 (2013)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL9</t>
+    <t xml:space="preserve">LOG-16S-SL9</t>
   </si>
   <si>
     <t xml:space="preserve">Lion Peak</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">#5273 (2014)</t>
   </si>
   <si>
-    <t xml:space="preserve">CC5</t>
+    <t xml:space="preserve">LOG-16S-CC5</t>
   </si>
   <si>
     <t xml:space="preserve">Hicks Creek</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">#5274 (2016)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL11</t>
+    <t xml:space="preserve">LOG-16S-SL11</t>
   </si>
   <si>
     <t xml:space="preserve">Knob</t>
@@ -304,13 +304,64 @@
     <t xml:space="preserve">#5275 (2017)</t>
   </si>
   <si>
-    <t xml:space="preserve">SL12</t>
+    <t xml:space="preserve">LOG-16S-SL12</t>
   </si>
   <si>
     <t xml:space="preserve">Ridge</t>
   </si>
   <si>
     <t xml:space="preserve">#5276 (2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-CC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-CC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-CC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-CC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-CC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG-ITS2-SL12</t>
   </si>
 </sst>
 </file>
@@ -436,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,6 +518,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -546,21 +601,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +729,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -784,7 +839,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -894,7 +949,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1004,7 +1059,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1114,7 +1169,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1224,7 +1279,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1334,7 +1389,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1444,7 +1499,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1554,7 +1609,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1664,7 +1719,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1774,7 +1829,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1884,7 +1939,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1994,7 +2049,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2104,7 +2159,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2214,7 +2269,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2324,7 +2379,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2434,7 +2489,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2543,6 +2598,1910 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>38.2399</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-112.8383</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U19" s="7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V19" s="7" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="W19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z19" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA19" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB19" s="7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC19" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD19" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AG19" s="7" t="n">
+        <v>1831</v>
+      </c>
+      <c r="AH19" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>38.3633</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-113.9149</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="W20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC20" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD20" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE20" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <v>2675</v>
+      </c>
+      <c r="AH20" s="7" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>38.6792</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-109.2999</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="V21" s="7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z21" s="7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA21" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB21" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC21" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD21" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AE21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AG21" s="7" t="n">
+        <v>1718</v>
+      </c>
+      <c r="AH21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>39.3052</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-112.0301</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V22" s="7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z22" s="7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA22" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC22" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD22" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AE22" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF22" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AG22" s="7" t="n">
+        <v>1086</v>
+      </c>
+      <c r="AH22" s="7" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>39.7791</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-110.8793</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S23" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T23" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U23" s="7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="V23" s="7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="W23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA23" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB23" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC23" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD23" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE23" s="7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF23" s="7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AG23" s="7" t="n">
+        <v>1482</v>
+      </c>
+      <c r="AH23" s="7" t="n">
+        <v>0.0736</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>38.4009</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-113.8894</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q24" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V24" s="7" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="W24" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X24" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA24" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB24" s="7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AC24" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD24" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE24" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF24" s="7" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="AG24" s="7" t="n">
+        <v>2012</v>
+      </c>
+      <c r="AH24" s="7" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>38.0547</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-113.1844</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N25" s="7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="P25" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" s="7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V25" s="7" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="W25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB25" s="7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC25" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD25" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE25" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF25" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AG25" s="7" t="n">
+        <v>1256</v>
+      </c>
+      <c r="AH25" s="7" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>40.952</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-112.8348</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N26" s="7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O26" s="7" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="P26" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q26" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V26" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="W26" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X26" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA26" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF26" s="7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AG26" s="7" t="n">
+        <v>1716</v>
+      </c>
+      <c r="AH26" s="7" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>41.5442</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-113.6921</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="N27" s="7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O27" s="7" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R27" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S27" s="7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V27" s="7" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC27" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD27" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AF27" s="7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AG27" s="7" t="n">
+        <v>2206</v>
+      </c>
+      <c r="AH27" s="7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>39.9885</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>-113.1322</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N28" s="7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O28" s="7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="P28" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q28" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T28" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U28" s="7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V28" s="7" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="W28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z28" s="7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA28" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB28" s="7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC28" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD28" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE28" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF28" s="7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AG28" s="7" t="n">
+        <v>1295</v>
+      </c>
+      <c r="AH28" s="7" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>39.9785</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>-113.1177</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M29" s="7" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="N29" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O29" s="7" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P29" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q29" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U29" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V29" s="7" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="W29" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X29" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA29" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB29" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC29" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD29" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE29" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF29" s="7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AG29" s="7" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AH29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>40.8316</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>-112.4833</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N30" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O30" s="7" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U30" s="7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="V30" s="7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="W30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z30" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA30" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB30" s="7" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AC30" s="7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD30" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AE30" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF30" s="7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AG30" s="7" t="n">
+        <v>1313</v>
+      </c>
+      <c r="AH30" s="7" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>41.5335</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-113.7096</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N31" s="7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O31" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="P31" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T31" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U31" s="7" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="V31" s="7" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="W31" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA31" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB31" s="7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC31" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD31" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AE31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="7" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AG31" s="7" t="n">
+        <v>1726</v>
+      </c>
+      <c r="AH31" s="7" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>39.9422</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-112.7181</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L32" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M32" s="7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N32" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O32" s="7" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="P32" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q32" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R32" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V32" s="7" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="W32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA32" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB32" s="7" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AC32" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD32" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE32" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF32" s="7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AG32" s="7" t="n">
+        <v>2794</v>
+      </c>
+      <c r="AH32" s="7" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>37.5799</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>-113.0851</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J33" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L33" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M33" s="7" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N33" s="7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O33" s="7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P33" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R33" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U33" s="7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="V33" s="7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB33" s="7" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="AC33" s="7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD33" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AE33" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF33" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AG33" s="7" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AH33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>40.9202</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>-113.0017</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N34" s="7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O34" s="7" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="P34" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q34" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U34" s="7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V34" s="7" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="W34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z34" s="7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA34" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB34" s="7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD34" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE34" s="7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF34" s="7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG34" s="7" t="n">
+        <v>1236</v>
+      </c>
+      <c r="AH34" s="7" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>41.5719</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>-113.7488</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J35" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L35" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N35" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O35" s="7" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="P35" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q35" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" s="7" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W35" s="7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X35" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB35" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC35" s="7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF35" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG35" s="7" t="n">
+        <v>1687</v>
+      </c>
+      <c r="AH35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
